--- a/Data/variable_list.xlsx
+++ b/Data/variable_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizzy\OneDrive\Columbia\Summer 2018\MixturesWorkshop\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanellinunez/Library/Mobile Documents/com~apple~CloudDocs/Columbia Univ. /Mixtures workshop_2018/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED37B9E8-D93D-4F0F-88DD-93EBA94C5077}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160C3FB-E4F0-E54D-B871-9C748F403513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6830" xr2:uid="{C936F131-AC11-474D-9CF1-A84A879F3129}"/>
+    <workbookView xWindow="8860" yWindow="460" windowWidth="19940" windowHeight="15220" xr2:uid="{C936F131-AC11-474D-9CF1-A84A879F3129}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,23 +628,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8624D39A-06BC-49FE-ABE1-A08D2281DA31}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.54296875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -655,7 +655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -688,7 +688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -721,7 +721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -743,7 +743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -754,7 +754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,7 +765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -776,7 +776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -787,7 +787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -809,7 +809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -820,7 +820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -831,7 +831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -842,7 +842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -853,7 +853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -875,7 +875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -908,7 +908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -919,7 +919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -941,7 +941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -949,7 +949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -957,7 +957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -968,7 +968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -979,7 +979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -987,7 +987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -998,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>58</v>
       </c>

--- a/Data/variable_list.xlsx
+++ b/Data/variable_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yanellinunez/Library/Mobile Documents/com~apple~CloudDocs/Columbia Univ. /Mixtures workshop_2018/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lizzy\OneDrive\Columbia\Summer 2018\MixturesWorkshop\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0160C3FB-E4F0-E54D-B871-9C748F403513}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED37B9E8-D93D-4F0F-88DD-93EBA94C5077}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="460" windowWidth="19940" windowHeight="15220" xr2:uid="{C936F131-AC11-474D-9CF1-A84A879F3129}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="6830" xr2:uid="{C936F131-AC11-474D-9CF1-A84A879F3129}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,23 +628,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8624D39A-06BC-49FE-ABE1-A08D2281DA31}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="114.5" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="114.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -655,7 +655,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -666,7 +666,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
@@ -677,7 +677,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -688,7 +688,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -699,7 +699,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -710,7 +710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -721,7 +721,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -732,7 +732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -743,7 +743,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -754,7 +754,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -765,7 +765,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -776,7 +776,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -787,7 +787,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -798,7 +798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -809,7 +809,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -820,7 +820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -831,7 +831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -842,7 +842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -853,7 +853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -864,7 +864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
@@ -875,7 +875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -886,7 +886,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
@@ -897,7 +897,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -908,7 +908,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -919,7 +919,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -930,7 +930,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -941,7 +941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -949,7 +949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -957,7 +957,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -968,7 +968,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -979,7 +979,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -987,7 +987,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>26</v>
       </c>
@@ -998,7 +998,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>58</v>
       </c>
